--- a/medicine/Handicap/Éléonore_Laloux/Éléonore_Laloux.xlsx
+++ b/medicine/Handicap/Éléonore_Laloux/Éléonore_Laloux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9onore_Laloux</t>
+          <t>Éléonore_Laloux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éléonore Laloux, née le 26 août 1985 à Arras, est une femme française porteuse de trisomie 21. Depuis son plus jeune âge, son parcours en milieu ordinaire est un modèle d'intégration. Porte-parole du Collectif Les Amis d'Éléonore, elle défend la cause des personnes porteuses de trisomie 21 et lutte contre la stigmatisation de sa maladie. Elle est auteure du livre Triso et alors ! , publié chez Max Milo Éditions en 2014.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9onore_Laloux</t>
+          <t>Éléonore_Laloux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,26 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naissance
-Éléonore Laloux naît le 26 août 1985 à Arras[1]. À sa naissance, les médecins annoncent à ses parents que leur fille a une trisomie et une malformation cardiaque et qu'elle ne devrait pas vivre plus de deux ou trois semaines. Elle restera deux mois et demi au centre de pathologie néonatale d'Arras. En septembre 1986, elle subit une opération à cœur ouvert au Plessis-Robinson, compliquée les semaines suivantes par une médiastinite à staphylocoques. Elle subira deux nouvelles interventions en décembre 2014 à l'Hôpital européen Georges-Pompidou pour ablation d'un cal osseux sternal volumineux et obstructif[réf. nécessaire].
-Scolarité et emploi
-Éléonore Laloux fera tout son parcours scolaire en milieu ordinaire, de la maternelle au lycée, avec l'aide de ses parents. Elle sera même finalement autorisée par la directrice du lycée à suivre des cours en BEP secrétariat, accompagnée par une auxiliaire de vie scolaire (AVS).
-Après divers stages, elle obtient en 2006 un CDD au service facturation de la clinique Bon Secours, dans le bâtiment même où elle naissait quelques années plus tôt[2]. Deux ans plus tard la clinique sera transformée en résidence intergénérationnelle où Éléonore Laloux résidera, devenant toujours plus autonome. La même année l'hôpital privé Arras les Bonnettes géré par la Générale de Santé transforme son contrat en CDI[3].
-Médiatisation
-À l'occasion de son opération à cœur ouvert, un appel au don du sang paraît dans La Voix du Nord dans un article intitulé : « Élan de solidarité aux Louez-Dieu en faveur de la petite Éléonore » : c'est sa première apparition dans la presse locale. À l'âge de quatre ans, Laloux a sa photo sur des affiches JCDecaux dans la ville d'Arras : elle y présente ses vœux aux Arrageois. Éléonore Laloux apparaîtra ensuite régulièrement dans les médias au sujet des nombreux combats menés par ses parents pour son insertion scolaire et sociale, dès 1992[4],[5].
-En mars 2012, Éléonore Laloux présente une exposition de photos tirées du livre Supplément d'âme où un large portrait lui est consacré. Elle recevra la même année le prix Géant 2012 du journal La Voix du Nord[6],[7].
-En mars 2013, elle apparaît dans l'émission Le Grand Journal de Canal+ avec Valérie Trierweiler[8].
-En mars 2014 est publiée la biographie d'Éléonore Laloux, consignée dans un livre : Triso et alors !, en collaboration avec le journaliste Yann Barte. Celle-ci sera présentée dans de nombreuses villes françaises mais également en Suisse (Lausanne[9], Fribourg) et sera largement médiatisée[10],[11],[12],[13]. Cette biographie sera publiée en espagnol en 2015 sous le titre Tengo Síndrome de Down ... ¿y qué? aux éditions NED[14],[15],[16],[17].
-Le 29 novembre 2017, Éléonore Laloux argumente en faveur des droits et de la dignité des personnes handicapées sur le plateau de l'émission Un monde en docs de Public Sénat[18]. Public Sénat classera le témoignage d’Éléonore parmi les cinq meilleurs de l’année[19] en indiquant : « Pétillante et haute en couleur, Éléonore est déterminée à montrer qu’il est possible pour une personne ayant un handicap mental de vivre avec les autres, et souligne l’importance d’être considéré comme une personne à part entière. Elle nous raconte son parcours et sa vision du handicap. »
-Éléonore Laloux est une des six protagonistes du documentaire J'irai décrocher la lune de Laurent Boileau[20].
-En avril 2023, Éléonore Laloux est choisie par Mattel pour être ambassadrice de la première poupée Barbie porteuse de trisomie 21[21],[22]. En août 2023, Mattel a fait figurer Éléonore Laloux sur sa liste de 13 femmes inspirantes qui ont une poupée Barbie à leur effigie[23].
-Engagement citoyen
-En mars 2012 et mars 2014, Éléonore Laloux intervient au Conseil économique, social et environnemental (CESE) au côté de son président Jean-Paul Delevoye dans le cadre de la Journée mondiale de la trisomie 21.
-En avril 2018, Éléonore Laloux participe à l'Université internationale d'été en déficience intellectuelle à l'Université du Québec à Trois-Rivières (UQTR)[24].
-Éléonore est secrétaire adjointe du bureau de l'association Down Up[25] depuis juin 2018.
-En mars 2020, Éléonore Laloux devient conseillère municipale[26] auprès du maire d'Arras, Frédéric Leturque. Une délégation de fonction et de signature lui est donnée dans le domaine de la Transition inclusive et du Bonheur.
-En octobre 2021, Sophie Cluzel, secrétaire d’État chargée des Personnes handicapées décore Éléonore Laloux, première conseillère municipale atteinte de trisomie 21, de l’ordre national du Mérite[27].
-Le 1er juillet 2023, Éléonore Laloux devient la première élue porteuse de trisomie 21 à célébrer un mariage[28].
+          <t>Naissance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éléonore Laloux naît le 26 août 1985 à Arras. À sa naissance, les médecins annoncent à ses parents que leur fille a une trisomie et une malformation cardiaque et qu'elle ne devrait pas vivre plus de deux ou trois semaines. Elle restera deux mois et demi au centre de pathologie néonatale d'Arras. En septembre 1986, elle subit une opération à cœur ouvert au Plessis-Robinson, compliquée les semaines suivantes par une médiastinite à staphylocoques. Elle subira deux nouvelles interventions en décembre 2014 à l'Hôpital européen Georges-Pompidou pour ablation d'un cal osseux sternal volumineux et obstructif[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -543,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9onore_Laloux</t>
+          <t>Éléonore_Laloux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,132 +557,371 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Scolarité et emploi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éléonore Laloux fera tout son parcours scolaire en milieu ordinaire, de la maternelle au lycée, avec l'aide de ses parents. Elle sera même finalement autorisée par la directrice du lycée à suivre des cours en BEP secrétariat, accompagnée par une auxiliaire de vie scolaire (AVS).
+Après divers stages, elle obtient en 2006 un CDD au service facturation de la clinique Bon Secours, dans le bâtiment même où elle naissait quelques années plus tôt. Deux ans plus tard la clinique sera transformée en résidence intergénérationnelle où Éléonore Laloux résidera, devenant toujours plus autonome. La même année l'hôpital privé Arras les Bonnettes géré par la Générale de Santé transforme son contrat en CDI.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éléonore_Laloux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médiatisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion de son opération à cœur ouvert, un appel au don du sang paraît dans La Voix du Nord dans un article intitulé : « Élan de solidarité aux Louez-Dieu en faveur de la petite Éléonore » : c'est sa première apparition dans la presse locale. À l'âge de quatre ans, Laloux a sa photo sur des affiches JCDecaux dans la ville d'Arras : elle y présente ses vœux aux Arrageois. Éléonore Laloux apparaîtra ensuite régulièrement dans les médias au sujet des nombreux combats menés par ses parents pour son insertion scolaire et sociale, dès 1992,.
+En mars 2012, Éléonore Laloux présente une exposition de photos tirées du livre Supplément d'âme où un large portrait lui est consacré. Elle recevra la même année le prix Géant 2012 du journal La Voix du Nord,.
+En mars 2013, elle apparaît dans l'émission Le Grand Journal de Canal+ avec Valérie Trierweiler.
+En mars 2014 est publiée la biographie d'Éléonore Laloux, consignée dans un livre : Triso et alors !, en collaboration avec le journaliste Yann Barte. Celle-ci sera présentée dans de nombreuses villes françaises mais également en Suisse (Lausanne, Fribourg) et sera largement médiatisée. Cette biographie sera publiée en espagnol en 2015 sous le titre Tengo Síndrome de Down ... ¿y qué? aux éditions NED.
+Le 29 novembre 2017, Éléonore Laloux argumente en faveur des droits et de la dignité des personnes handicapées sur le plateau de l'émission Un monde en docs de Public Sénat. Public Sénat classera le témoignage d’Éléonore parmi les cinq meilleurs de l’année en indiquant : « Pétillante et haute en couleur, Éléonore est déterminée à montrer qu’il est possible pour une personne ayant un handicap mental de vivre avec les autres, et souligne l’importance d’être considéré comme une personne à part entière. Elle nous raconte son parcours et sa vision du handicap. »
+Éléonore Laloux est une des six protagonistes du documentaire J'irai décrocher la lune de Laurent Boileau.
+En avril 2023, Éléonore Laloux est choisie par Mattel pour être ambassadrice de la première poupée Barbie porteuse de trisomie 21,. En août 2023, Mattel a fait figurer Éléonore Laloux sur sa liste de 13 femmes inspirantes qui ont une poupée Barbie à leur effigie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éléonore_Laloux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Engagement citoyen</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2012 et mars 2014, Éléonore Laloux intervient au Conseil économique, social et environnemental (CESE) au côté de son président Jean-Paul Delevoye dans le cadre de la Journée mondiale de la trisomie 21.
+En avril 2018, Éléonore Laloux participe à l'Université internationale d'été en déficience intellectuelle à l'Université du Québec à Trois-Rivières (UQTR).
+Éléonore est secrétaire adjointe du bureau de l'association Down Up depuis juin 2018.
+En mars 2020, Éléonore Laloux devient conseillère municipale auprès du maire d'Arras, Frédéric Leturque. Une délégation de fonction et de signature lui est donnée dans le domaine de la Transition inclusive et du Bonheur.
+En octobre 2021, Sophie Cluzel, secrétaire d’État chargée des Personnes handicapées décore Éléonore Laloux, première conseillère municipale atteinte de trisomie 21, de l’ordre national du Mérite.
+Le 1er juillet 2023, Éléonore Laloux devient la première élue porteuse de trisomie 21 à célébrer un mariage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éléonore_Laloux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Lobbying politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Éléonore Laloux a rencontré diverses personnalités, notamment durant le débat sur la révision de la loi bioéthique, sous les mandats de Nicolas Sarkozy et François Hollande :
 Frédéric Leturque, maire d'Arras : représentation des personnes atteintes de trisomie dans la ville d'Arras
 Alain Graf, rapporteur des états généraux de la bioéthique : 20 mai 2010
 Jean-Paul Delevoye, médiateur de la République, président du Conseil économique, social et environnemental : 7 juillet 2010 (rencontre avec le médiateur de la République), 8 octobre 2011, 16 mars 2012, 21 mars 2014 interventions au CESE
 Jean Leonetti, député des Alpes-Maritimes : 7 juillet 2010 (révision de la loi de bioéthique)
-Catherine Génisson, sénatrice PS du Pas-de-Calais : 13 juillet 2010[29]
+Catherine Génisson, sénatrice PS du Pas-de-Calais : 13 juillet 2010
 Hervé Mariton, député UMP de la Drôme : 15 décembre 2010 (révision de la loi de bioéthique)
 Jean-Marie Vanlerenberghe, sénateur du Pas-de-Calais et maire d'Arras : 3 février 2011
 Roselyne Bachelot, ministre de la Santé, sa secrétaire d'État Marie-Anne Montchamp, le ministre de l'Éducation nationale Luc Chatel, et le député Paul Jeanneteau à l'occasion de la table ronde sur le handicap organisée par l'UMP au Palais de la découverte : 1er décembre 2011
 François Fillon, Premier ministre : 22 décembre 2011 (signature du Pacte pour l'emploi des personnes en situation de handicap en entreprise adaptée 2012-2014)
 Paul Jeanneteau, député de Maine-et-Loire : 10 janvier 2012 (visite de la résidence Îlot Bon Secours)
-Valérie Trierweiler : 21 mars 2013 (plateau du Grand Journal, Canal+)[30]
-Conseillère de François Hollande, membre de l'IGAS : 12 mai 2015 (remise de 21 propositions visant à « valoriser les différences, favoriser l'inclusion des êtres fragilisés, et changer le regard porté sur les personnes ayant un chromosome en + »)[31]
-Ségolène Neuville, Secrétaire d'État chargée des Personnes handicapées et de la Lutte contre l'exclusion, 21 mars 2016 (journée mondiale de la trisomie 21)[32]
-Sophie Cluzel, Secrétaire d'État chargée des Personnes handicapées : 12 octobre 2017[33]
-Elle est également citée à l'Assemblée nationale, lors d'une question du député de la Seine-Saint-Denis, Gérard Gaudron, à Marie-Anne Montchamp, secrétaire d'État auprès de la Ministre des Solidarités et de la Cohésion sociale, le 24 mars 2011[34].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89l%C3%A9onore_Laloux</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Valérie Trierweiler : 21 mars 2013 (plateau du Grand Journal, Canal+)
+Conseillère de François Hollande, membre de l'IGAS : 12 mai 2015 (remise de 21 propositions visant à « valoriser les différences, favoriser l'inclusion des êtres fragilisés, et changer le regard porté sur les personnes ayant un chromosome en + »)
+Ségolène Neuville, Secrétaire d'État chargée des Personnes handicapées et de la Lutte contre l'exclusion, 21 mars 2016 (journée mondiale de la trisomie 21)
+Sophie Cluzel, Secrétaire d'État chargée des Personnes handicapées : 12 octobre 2017
+Elle est également citée à l'Assemblée nationale, lors d'une question du député de la Seine-Saint-Denis, Gérard Gaudron, à Marie-Anne Montchamp, secrétaire d'État auprès de la Ministre des Solidarités et de la Cohésion sociale, le 24 mars 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éléonore_Laloux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Polémique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors d'une émission La Tête au carré sur France Inter, le 5 octobre 2012, le neurobiologiste Jean-Didier Vincent déclarait : « Pourquoi faut-il conserver les trisomiques qui sont quand même un poison dans une famille ? ». Éléonore Laloux répond à plusieurs reprises à cette déclaration, d'abord dans une vidéo[35] en 2013, puis, un an plus tard, en mars 2014, dans le chapitre Je ne suis pas un poison de son livre autobiographique : Triso et alors ! Elle dénoncera aussi le discours violent de certains médecins dans nombre d'articles[36] et sur les ondes mêmes de France Inter[37], le 19 mars 2014.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89l%C3%A9onore_Laloux</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'une émission La Tête au carré sur France Inter, le 5 octobre 2012, le neurobiologiste Jean-Didier Vincent déclarait : « Pourquoi faut-il conserver les trisomiques qui sont quand même un poison dans une famille ? ». Éléonore Laloux répond à plusieurs reprises à cette déclaration, d'abord dans une vidéo en 2013, puis, un an plus tard, en mars 2014, dans le chapitre Je ne suis pas un poison de son livre autobiographique : Triso et alors ! Elle dénoncera aussi le discours violent de certains médecins dans nombre d'articles et sur les ondes mêmes de France Inter, le 19 mars 2014.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Éléonore_Laloux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Éléonore Laloux avec Yann Barte, Triso et alors !, Max Milo Éditions, 2014[38],[39],[40].
-Tengo Síndrome de Down ... ¿y qué? chez NED, traduction de Triso et alors ! par Alfonso Díez et postface de Enric Berenguer, 2015[41].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89l%C3%A9onore_Laloux</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Éléonore Laloux avec Yann Barte, Triso et alors !, Max Milo Éditions, 2014.
+Tengo Síndrome de Down ... ¿y qué? chez NED, traduction de Triso et alors ! par Alfonso Díez et postface de Enric Berenguer, 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Éléonore_Laloux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Le Collectif Les Amis d'Éléonore</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Objectifs
-Le collectif a parmi ses objectifs la lutte contre la stigmatisation de la trisomie 21 (à travers un changement de regard de la société), et le financement de la recherche thérapeutique sur la T21[42].
-Histoire
-En mars 2010, le Collectif Les Amis d'Éléonore est lancé au cours d'une conférence de presse à Arras[43],[44]. Le Collectif se félicite d'avoir été entendu sur la pratique du DPI (diagnostic préimplantatoire) qui ne sera finalement pas étendu à la trisomie 21, comme annoncé par Madame Roselyne Bachelot, ministre de la Santé[45].
-En mai 2010, le collectif compte une quinzaine d'associations de familles d'enfants trisomiques[46].
-Prises de position
-En 2010, le Collectif participe au débat autour du projet de loi de bioéthique avec la Fondation Jérôme-Lejeune, s'opposant au caractère systématique du dépistage de la trisomie 21 dans le cadre du DPI, mais il revendique de ne pas s'inscrire pour autant dans le combat contre l'interruption médicale de grossesse choisie suite au dépistage prénatal. S'affichant dès sa création laïque et pro-choix, le Collectif entend cependant alerter médias et politiques sur les risques d'une course à l'enfant parfait[47]. Jean Leonetti, rapporteur de la mission d'information parlementaire pour la révision de la loi de bioéthique, répondra à ces accusations.[réf. nécessaire] Le collectif prend acte de l'adoption du projet de loi relatif à la bioéthique, et demande qu'une information objective soit délivrée aux futures mères[48].
-En octobre 2010, le collectif Les Amis d’Éléonore lance une campagne « Trisomique ? Et alors ! », dans le but que la trisomie 21 obtienne le label de cause d’intérêt général en 2011[42].
-Clémence Bodoc estime, dans un article publié en 2014 sur le média Madmoizelle, que les positions du collectif sont « anti-choix »[49].
-Actions
-En mars 2014, le Collectif participe à la campagne européenne Dear Future Mom (« Chère Future Maman »)[50].
-Le même mois, le Collectif participe à la troisième journée mondiale de la Trisomie à travers des ateliers organisés au sein du Conseil économique, social et environnemental, avec son président Jean-Paul Delevoye, donnant la parole à une cinquantaine de personnes atteintes de la trisomie 21[51].
-En 2016, le collectif dénonce la « censure » du CSA, concernant la diffusion du clip « Chère Future Maman »[52]. À cette occasion, son président Emmanuel Laloux note que depuis le rappel à l'ordre du CSA sur la diffusion du clip, il est devenu très difficile de trouver de l'espace gratuit sur des chaînes de télévision pour permettre aux personnes trisomiques de s'exprimer[50].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Objectifs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le collectif a parmi ses objectifs la lutte contre la stigmatisation de la trisomie 21 (à travers un changement de regard de la société), et le financement de la recherche thérapeutique sur la T21.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Éléonore_Laloux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Le Collectif Les Amis d'Éléonore</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2010, le Collectif Les Amis d'Éléonore est lancé au cours d'une conférence de presse à Arras,. Le Collectif se félicite d'avoir été entendu sur la pratique du DPI (diagnostic préimplantatoire) qui ne sera finalement pas étendu à la trisomie 21, comme annoncé par Madame Roselyne Bachelot, ministre de la Santé.
+En mai 2010, le collectif compte une quinzaine d'associations de familles d'enfants trisomiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Éléonore_Laloux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Le Collectif Les Amis d'Éléonore</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prises de position</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, le Collectif participe au débat autour du projet de loi de bioéthique avec la Fondation Jérôme-Lejeune, s'opposant au caractère systématique du dépistage de la trisomie 21 dans le cadre du DPI, mais il revendique de ne pas s'inscrire pour autant dans le combat contre l'interruption médicale de grossesse choisie suite au dépistage prénatal. S'affichant dès sa création laïque et pro-choix, le Collectif entend cependant alerter médias et politiques sur les risques d'une course à l'enfant parfait. Jean Leonetti, rapporteur de la mission d'information parlementaire pour la révision de la loi de bioéthique, répondra à ces accusations.[réf. nécessaire] Le collectif prend acte de l'adoption du projet de loi relatif à la bioéthique, et demande qu'une information objective soit délivrée aux futures mères.
+En octobre 2010, le collectif Les Amis d’Éléonore lance une campagne « Trisomique ? Et alors ! », dans le but que la trisomie 21 obtienne le label de cause d’intérêt général en 2011.
+Clémence Bodoc estime, dans un article publié en 2014 sur le média Madmoizelle, que les positions du collectif sont « anti-choix ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Éléonore_Laloux</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Laloux</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Le Collectif Les Amis d'Éléonore</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2014, le Collectif participe à la campagne européenne Dear Future Mom (« Chère Future Maman »).
+Le même mois, le Collectif participe à la troisième journée mondiale de la Trisomie à travers des ateliers organisés au sein du Conseil économique, social et environnemental, avec son président Jean-Paul Delevoye, donnant la parole à une cinquantaine de personnes atteintes de la trisomie 21.
+En 2016, le collectif dénonce la « censure » du CSA, concernant la diffusion du clip « Chère Future Maman ». À cette occasion, son président Emmanuel Laloux note que depuis le rappel à l'ordre du CSA sur la diffusion du clip, il est devenu très difficile de trouver de l'espace gratuit sur des chaînes de télévision pour permettre aux personnes trisomiques de s'exprimer.
 </t>
         </is>
       </c>
